--- a/results/I3_N5_M2_T15_C100_DepCentral_s0_P1_res.xlsx
+++ b/results/I3_N5_M2_T15_C100_DepCentral_s0_P1_res.xlsx
@@ -473,7 +473,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>2834.569597543882</v>
+        <v>858.3977085871632</v>
       </c>
     </row>
     <row r="4">
@@ -483,7 +483,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.00800013542175293</v>
+        <v>0.003999948501586914</v>
       </c>
     </row>
     <row r="5">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>19.25725746793465</v>
+        <v>18.39770858716315</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>11.74768710510666</v>
+        <v>4.537147384845644</v>
       </c>
     </row>
     <row r="8">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>5.93002718104835</v>
+        <v>4.537147384845644</v>
       </c>
     </row>
     <row r="9">
@@ -533,7 +533,7 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>2525.900000000006</v>
+        <v>544</v>
       </c>
     </row>
     <row r="10">
@@ -543,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>295.23</v>
+        <v>296</v>
       </c>
     </row>
   </sheetData>
@@ -557,7 +557,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C11"/>
+  <dimension ref="A1:C8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -639,10 +639,10 @@
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B7" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C7" t="n">
         <v>1</v>
@@ -653,42 +653,9 @@
         <v>4</v>
       </c>
       <c r="B8" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C8" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="n">
-        <v>4</v>
-      </c>
-      <c r="B9" t="n">
-        <v>3</v>
-      </c>
-      <c r="C9" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="n">
-        <v>4</v>
-      </c>
-      <c r="B10" t="n">
-        <v>4</v>
-      </c>
-      <c r="C10" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="n">
-        <v>4</v>
-      </c>
-      <c r="B11" t="n">
-        <v>5</v>
-      </c>
-      <c r="C11" t="n">
         <v>1</v>
       </c>
     </row>
@@ -733,7 +700,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C2" t="n">
         <v>1</v>
@@ -755,7 +722,7 @@
         <v>1</v>
       </c>
       <c r="B4" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="C4" t="n">
         <v>1</v>
@@ -766,7 +733,7 @@
         <v>2</v>
       </c>
       <c r="B5" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="C5" t="n">
         <v>1</v>
@@ -777,7 +744,7 @@
         <v>3</v>
       </c>
       <c r="B6" t="n">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="C6" t="n">
         <v>1</v>
@@ -788,7 +755,7 @@
         <v>4</v>
       </c>
       <c r="B7" t="n">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="C7" t="n">
         <v>1</v>
@@ -799,7 +766,7 @@
         <v>5</v>
       </c>
       <c r="B8" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C8" t="n">
         <v>1</v>
@@ -846,7 +813,7 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C2" t="n">
         <v>1</v>
@@ -857,7 +824,7 @@
         <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C3" t="n">
         <v>1</v>
@@ -962,7 +929,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>7.276726247163714</v>
+        <v>11.43123270582125</v>
       </c>
     </row>
     <row r="4">
@@ -970,7 +937,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>11.16307414718502</v>
+        <v>5</v>
       </c>
     </row>
     <row r="5">
@@ -978,7 +945,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>12.37739353073907</v>
+        <v>10</v>
       </c>
     </row>
     <row r="6">
@@ -986,7 +953,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>10</v>
+        <v>12.37739353073907</v>
       </c>
     </row>
     <row r="7">
@@ -994,7 +961,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>3.50084224470813</v>
+        <v>1.815506319679688</v>
       </c>
     </row>
     <row r="8">
@@ -1010,7 +977,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>14.49989205841819</v>
+        <v>14.79834375740628</v>
       </c>
     </row>
   </sheetData>
@@ -1024,7 +991,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D20"/>
+  <dimension ref="A1:D8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1059,7 +1026,7 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="C2" t="n">
         <v>1</v>
@@ -1073,7 +1040,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="C3" t="n">
         <v>2</v>
@@ -1087,7 +1054,7 @@
         <v>1</v>
       </c>
       <c r="B4" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="C4" t="n">
         <v>3</v>
@@ -1101,7 +1068,7 @@
         <v>1</v>
       </c>
       <c r="B5" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="C5" t="n">
         <v>4</v>
@@ -1115,7 +1082,7 @@
         <v>1</v>
       </c>
       <c r="B6" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="C6" t="n">
         <v>5</v>
@@ -1126,10 +1093,10 @@
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="B7" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C7" t="n">
         <v>1</v>
@@ -1140,183 +1107,15 @@
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="B8" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C8" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D8" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="n">
-        <v>2</v>
-      </c>
-      <c r="B9" t="n">
-        <v>6</v>
-      </c>
-      <c r="C9" t="n">
-        <v>3</v>
-      </c>
-      <c r="D9" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="n">
-        <v>2</v>
-      </c>
-      <c r="B10" t="n">
-        <v>6</v>
-      </c>
-      <c r="C10" t="n">
-        <v>4</v>
-      </c>
-      <c r="D10" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="n">
-        <v>2</v>
-      </c>
-      <c r="B11" t="n">
-        <v>6</v>
-      </c>
-      <c r="C11" t="n">
-        <v>5</v>
-      </c>
-      <c r="D11" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="n">
-        <v>3</v>
-      </c>
-      <c r="B12" t="n">
-        <v>7</v>
-      </c>
-      <c r="C12" t="n">
-        <v>1</v>
-      </c>
-      <c r="D12" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="n">
-        <v>3</v>
-      </c>
-      <c r="B13" t="n">
-        <v>7</v>
-      </c>
-      <c r="C13" t="n">
-        <v>2</v>
-      </c>
-      <c r="D13" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" t="n">
-        <v>3</v>
-      </c>
-      <c r="B14" t="n">
-        <v>7</v>
-      </c>
-      <c r="C14" t="n">
-        <v>3</v>
-      </c>
-      <c r="D14" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" t="n">
-        <v>3</v>
-      </c>
-      <c r="B15" t="n">
-        <v>7</v>
-      </c>
-      <c r="C15" t="n">
-        <v>4</v>
-      </c>
-      <c r="D15" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" t="n">
-        <v>3</v>
-      </c>
-      <c r="B16" t="n">
-        <v>7</v>
-      </c>
-      <c r="C16" t="n">
-        <v>5</v>
-      </c>
-      <c r="D16" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" t="n">
-        <v>4</v>
-      </c>
-      <c r="B17" t="n">
-        <v>3</v>
-      </c>
-      <c r="C17" t="n">
-        <v>1</v>
-      </c>
-      <c r="D17" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" t="n">
-        <v>4</v>
-      </c>
-      <c r="B18" t="n">
-        <v>3</v>
-      </c>
-      <c r="C18" t="n">
-        <v>3</v>
-      </c>
-      <c r="D18" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" t="n">
-        <v>4</v>
-      </c>
-      <c r="B19" t="n">
-        <v>3</v>
-      </c>
-      <c r="C19" t="n">
-        <v>4</v>
-      </c>
-      <c r="D19" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" t="n">
-        <v>4</v>
-      </c>
-      <c r="B20" t="n">
-        <v>3</v>
-      </c>
-      <c r="C20" t="n">
-        <v>5</v>
-      </c>
-      <c r="D20" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1419,7 +1218,7 @@
         <v>1</v>
       </c>
       <c r="C7" t="n">
-        <v>125.5050000000004</v>
+        <v>150</v>
       </c>
     </row>
     <row r="8">
@@ -1430,7 +1229,7 @@
         <v>2</v>
       </c>
       <c r="C8" t="n">
-        <v>131.3400000000004</v>
+        <v>157</v>
       </c>
     </row>
     <row r="9">
@@ -1441,7 +1240,7 @@
         <v>3</v>
       </c>
       <c r="C9" t="n">
-        <v>134.4650000000004</v>
+        <v>156</v>
       </c>
     </row>
     <row r="10">
@@ -1452,7 +1251,7 @@
         <v>4</v>
       </c>
       <c r="C10" t="n">
-        <v>137.05</v>
+        <v>155</v>
       </c>
     </row>
     <row r="11">
@@ -1463,7 +1262,7 @@
         <v>5</v>
       </c>
       <c r="C11" t="n">
-        <v>135.25</v>
+        <v>146</v>
       </c>
     </row>
     <row r="12">
@@ -1474,7 +1273,7 @@
         <v>1</v>
       </c>
       <c r="C12" t="n">
-        <v>236.9050000000012</v>
+        <v>85</v>
       </c>
     </row>
     <row r="13">
@@ -1485,7 +1284,7 @@
         <v>2</v>
       </c>
       <c r="C13" t="n">
-        <v>253.4050000000013</v>
+        <v>87</v>
       </c>
     </row>
     <row r="14">
@@ -1496,7 +1295,7 @@
         <v>3</v>
       </c>
       <c r="C14" t="n">
-        <v>251.1800000000013</v>
+        <v>84</v>
       </c>
     </row>
     <row r="15">
@@ -1507,7 +1306,7 @@
         <v>4</v>
       </c>
       <c r="C15" t="n">
-        <v>262.2600000000012</v>
+        <v>86</v>
       </c>
     </row>
     <row r="16">
@@ -1518,7 +1317,7 @@
         <v>5</v>
       </c>
       <c r="C16" t="n">
-        <v>257.8800000000012</v>
+        <v>79</v>
       </c>
     </row>
     <row r="17">
@@ -1529,7 +1328,7 @@
         <v>1</v>
       </c>
       <c r="C17" t="n">
-        <v>208.0599999999993</v>
+        <v>56</v>
       </c>
     </row>
     <row r="18">
@@ -1540,7 +1339,7 @@
         <v>2</v>
       </c>
       <c r="C18" t="n">
-        <v>189.4349999999993</v>
+        <v>49</v>
       </c>
     </row>
     <row r="19">
@@ -1551,7 +1350,7 @@
         <v>3</v>
       </c>
       <c r="C19" t="n">
-        <v>206.7149999999993</v>
+        <v>54</v>
       </c>
     </row>
     <row r="20">
@@ -1562,7 +1361,7 @@
         <v>4</v>
       </c>
       <c r="C20" t="n">
-        <v>193.8399999999993</v>
+        <v>51</v>
       </c>
     </row>
     <row r="21">
@@ -1573,7 +1372,7 @@
         <v>5</v>
       </c>
       <c r="C21" t="n">
-        <v>203.2699999999994</v>
+        <v>54</v>
       </c>
     </row>
     <row r="22">
@@ -1584,7 +1383,7 @@
         <v>1</v>
       </c>
       <c r="C22" t="n">
-        <v>108.515</v>
+        <v>105</v>
       </c>
     </row>
     <row r="23">
@@ -1595,7 +1394,7 @@
         <v>2</v>
       </c>
       <c r="C23" t="n">
-        <v>96.92</v>
+        <v>88</v>
       </c>
     </row>
     <row r="24">
@@ -1606,7 +1405,7 @@
         <v>3</v>
       </c>
       <c r="C24" t="n">
-        <v>106.645</v>
+        <v>98</v>
       </c>
     </row>
     <row r="25">
@@ -1617,7 +1416,7 @@
         <v>4</v>
       </c>
       <c r="C25" t="n">
-        <v>103.745</v>
+        <v>103</v>
       </c>
     </row>
     <row r="26">
@@ -1628,7 +1427,7 @@
         <v>5</v>
       </c>
       <c r="C26" t="n">
-        <v>100.49</v>
+        <v>97</v>
       </c>
     </row>
     <row r="27">
@@ -1639,7 +1438,7 @@
         <v>1</v>
       </c>
       <c r="C27" t="n">
-        <v>61.37999999999978</v>
+        <v>25</v>
       </c>
     </row>
     <row r="28">
@@ -1650,7 +1449,7 @@
         <v>2</v>
       </c>
       <c r="C28" t="n">
-        <v>61.35999999999979</v>
+        <v>25</v>
       </c>
     </row>
     <row r="29">
@@ -1661,7 +1460,7 @@
         <v>3</v>
       </c>
       <c r="C29" t="n">
-        <v>65.61999999999978</v>
+        <v>27</v>
       </c>
     </row>
     <row r="30">
@@ -1672,7 +1471,7 @@
         <v>4</v>
       </c>
       <c r="C30" t="n">
-        <v>66.05999999999977</v>
+        <v>27</v>
       </c>
     </row>
     <row r="31">
@@ -1683,7 +1482,7 @@
         <v>5</v>
       </c>
       <c r="C31" t="n">
-        <v>64.25999999999978</v>
+        <v>26</v>
       </c>
     </row>
     <row r="32">
@@ -1694,7 +1493,7 @@
         <v>1</v>
       </c>
       <c r="C32" t="n">
-        <v>236.9050000000012</v>
+        <v>150</v>
       </c>
     </row>
     <row r="33">
@@ -1705,7 +1504,7 @@
         <v>2</v>
       </c>
       <c r="C33" t="n">
-        <v>253.4050000000013</v>
+        <v>157</v>
       </c>
     </row>
     <row r="34">
@@ -1716,7 +1515,7 @@
         <v>3</v>
       </c>
       <c r="C34" t="n">
-        <v>251.1800000000013</v>
+        <v>156</v>
       </c>
     </row>
     <row r="35">
@@ -1727,7 +1526,7 @@
         <v>4</v>
       </c>
       <c r="C35" t="n">
-        <v>262.2600000000012</v>
+        <v>155</v>
       </c>
     </row>
     <row r="36">
@@ -1738,7 +1537,7 @@
         <v>5</v>
       </c>
       <c r="C36" t="n">
-        <v>257.8800000000012</v>
+        <v>146</v>
       </c>
     </row>
     <row r="37">
@@ -1749,7 +1548,7 @@
         <v>1</v>
       </c>
       <c r="C37" t="n">
-        <v>208.0599999999993</v>
+        <v>105</v>
       </c>
     </row>
     <row r="38">
@@ -1760,7 +1559,7 @@
         <v>2</v>
       </c>
       <c r="C38" t="n">
-        <v>189.4349999999993</v>
+        <v>88</v>
       </c>
     </row>
     <row r="39">
@@ -1771,7 +1570,7 @@
         <v>3</v>
       </c>
       <c r="C39" t="n">
-        <v>206.7149999999993</v>
+        <v>98</v>
       </c>
     </row>
     <row r="40">
@@ -1782,7 +1581,7 @@
         <v>4</v>
       </c>
       <c r="C40" t="n">
-        <v>193.8399999999993</v>
+        <v>103</v>
       </c>
     </row>
     <row r="41">
@@ -1793,7 +1592,7 @@
         <v>5</v>
       </c>
       <c r="C41" t="n">
-        <v>203.2699999999994</v>
+        <v>97</v>
       </c>
     </row>
   </sheetData>
@@ -1840,7 +1639,7 @@
         <v>1</v>
       </c>
       <c r="C2" t="n">
-        <v>136.9050000000012</v>
+        <v>50</v>
       </c>
     </row>
     <row r="3">
@@ -1851,7 +1650,7 @@
         <v>2</v>
       </c>
       <c r="C3" t="n">
-        <v>153.4050000000013</v>
+        <v>57</v>
       </c>
     </row>
     <row r="4">
@@ -1862,7 +1661,7 @@
         <v>3</v>
       </c>
       <c r="C4" t="n">
-        <v>151.1800000000013</v>
+        <v>56</v>
       </c>
     </row>
     <row r="5">
@@ -1873,7 +1672,7 @@
         <v>4</v>
       </c>
       <c r="C5" t="n">
-        <v>162.2600000000012</v>
+        <v>55</v>
       </c>
     </row>
     <row r="6">
@@ -1884,7 +1683,7 @@
         <v>5</v>
       </c>
       <c r="C6" t="n">
-        <v>157.8800000000012</v>
+        <v>46</v>
       </c>
     </row>
     <row r="7">
@@ -1895,7 +1694,7 @@
         <v>1</v>
       </c>
       <c r="C7" t="n">
-        <v>108.0599999999993</v>
+        <v>5</v>
       </c>
     </row>
     <row r="8">
@@ -1906,7 +1705,7 @@
         <v>2</v>
       </c>
       <c r="C8" t="n">
-        <v>89.43499999999935</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -1917,7 +1716,7 @@
         <v>3</v>
       </c>
       <c r="C9" t="n">
-        <v>106.7149999999993</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10">
@@ -1928,7 +1727,7 @@
         <v>4</v>
       </c>
       <c r="C10" t="n">
-        <v>93.83999999999935</v>
+        <v>3</v>
       </c>
     </row>
     <row r="11">
@@ -1939,7 +1738,7 @@
         <v>5</v>
       </c>
       <c r="C11" t="n">
-        <v>103.2699999999994</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -1986,7 +1785,7 @@
         <v>1</v>
       </c>
       <c r="C2" t="n">
-        <v>4.05</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -1997,7 +1796,7 @@
         <v>2</v>
       </c>
       <c r="C3" t="n">
-        <v>6.15</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -2008,7 +1807,7 @@
         <v>3</v>
       </c>
       <c r="C4" t="n">
-        <v>6.995</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -2019,7 +1818,7 @@
         <v>4</v>
       </c>
       <c r="C5" t="n">
-        <v>5.92</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -2030,7 +1829,7 @@
         <v>5</v>
       </c>
       <c r="C6" t="n">
-        <v>4.86</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7">
@@ -2041,7 +1840,7 @@
         <v>1</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
     </row>
     <row r="8">
@@ -2052,7 +1851,7 @@
         <v>2</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>9</v>
       </c>
     </row>
     <row r="9">
@@ -2063,7 +1862,7 @@
         <v>3</v>
       </c>
       <c r="C9" t="n">
-        <v>0</v>
+        <v>7</v>
       </c>
     </row>
     <row r="10">
@@ -2074,7 +1873,7 @@
         <v>4</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>9</v>
       </c>
     </row>
     <row r="11">
@@ -2085,7 +1884,7 @@
         <v>5</v>
       </c>
       <c r="C11" t="n">
-        <v>0</v>
+        <v>8</v>
       </c>
     </row>
     <row r="12">
@@ -2206,7 +2005,7 @@
         <v>1</v>
       </c>
       <c r="C22" t="n">
-        <v>15.84</v>
+        <v>18</v>
       </c>
     </row>
     <row r="23">
@@ -2217,7 +2016,7 @@
         <v>2</v>
       </c>
       <c r="C23" t="n">
-        <v>25.985</v>
+        <v>22</v>
       </c>
     </row>
     <row r="24">
@@ -2228,7 +2027,7 @@
         <v>3</v>
       </c>
       <c r="C24" t="n">
-        <v>25.86</v>
+        <v>25</v>
       </c>
     </row>
     <row r="25">
@@ -2239,7 +2038,7 @@
         <v>4</v>
       </c>
       <c r="C25" t="n">
-        <v>25.8</v>
+        <v>24</v>
       </c>
     </row>
     <row r="26">
@@ -2250,7 +2049,7 @@
         <v>5</v>
       </c>
       <c r="C26" t="n">
-        <v>26.155</v>
+        <v>21</v>
       </c>
     </row>
   </sheetData>
@@ -2264,7 +2063,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C20"/>
+  <dimension ref="A1:C8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2346,7 +2145,7 @@
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="B7" t="n">
         <v>1</v>
@@ -2357,144 +2156,12 @@
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="B8" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C8" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="n">
-        <v>2</v>
-      </c>
-      <c r="B9" t="n">
-        <v>3</v>
-      </c>
-      <c r="C9" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="n">
-        <v>2</v>
-      </c>
-      <c r="B10" t="n">
-        <v>4</v>
-      </c>
-      <c r="C10" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="n">
-        <v>2</v>
-      </c>
-      <c r="B11" t="n">
-        <v>5</v>
-      </c>
-      <c r="C11" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="n">
-        <v>3</v>
-      </c>
-      <c r="B12" t="n">
-        <v>1</v>
-      </c>
-      <c r="C12" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="n">
-        <v>3</v>
-      </c>
-      <c r="B13" t="n">
-        <v>2</v>
-      </c>
-      <c r="C13" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" t="n">
-        <v>3</v>
-      </c>
-      <c r="B14" t="n">
-        <v>3</v>
-      </c>
-      <c r="C14" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" t="n">
-        <v>3</v>
-      </c>
-      <c r="B15" t="n">
-        <v>4</v>
-      </c>
-      <c r="C15" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" t="n">
-        <v>3</v>
-      </c>
-      <c r="B16" t="n">
-        <v>5</v>
-      </c>
-      <c r="C16" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" t="n">
-        <v>4</v>
-      </c>
-      <c r="B17" t="n">
-        <v>1</v>
-      </c>
-      <c r="C17" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" t="n">
-        <v>4</v>
-      </c>
-      <c r="B18" t="n">
-        <v>3</v>
-      </c>
-      <c r="C18" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" t="n">
-        <v>4</v>
-      </c>
-      <c r="B19" t="n">
-        <v>4</v>
-      </c>
-      <c r="C19" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" t="n">
-        <v>4</v>
-      </c>
-      <c r="B20" t="n">
-        <v>5</v>
-      </c>
-      <c r="C20" t="n">
         <v>1</v>
       </c>
     </row>
